--- a/RUDN/Importance/Varible_muatal_in_South America.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_South America.xlsx
@@ -28,24 +28,24 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -199,18 +199,18 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
@@ -220,15 +220,15 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
@@ -277,27 +280,24 @@
     <t>Male population 65-69</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
@@ -328,24 +328,24 @@
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
@@ -358,33 +358,33 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
@@ -394,15 +394,15 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
@@ -430,30 +430,30 @@
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -481,12 +481,12 @@
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
@@ -529,12 +529,12 @@
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
@@ -616,15 +616,15 @@
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -652,15 +652,15 @@
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
@@ -679,18 +679,21 @@
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
@@ -709,39 +712,36 @@
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
+    <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
@@ -754,10 +754,16 @@
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
@@ -769,27 +775,21 @@
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
@@ -802,43 +802,46 @@
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Employment in industry, female (% of female employment)</t>
@@ -853,25 +856,31 @@
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
@@ -880,22 +889,16 @@
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
@@ -904,46 +907,49 @@
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>GINI index (World Bank estimate)</t>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
@@ -952,12 +958,6 @@
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
@@ -967,364 +967,373 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
     <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Rural poverty gap at national poverty lines (%)</t>
   </si>
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
     <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+    <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
     <t>Informal employment, female (% of total non-agricultural employment)</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
     <t>Malnutrition prevalence, height for age (% of children under 5)</t>
   </si>
   <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
     <t>Prevalence of underweight, weight for age (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
     <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Sex ratio at birth (male births per female births)</t>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Master's or equivalent, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Master's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Master's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Master's or equivalent, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
@@ -1333,30 +1342,24 @@
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
     <t>Location of cooking: inside the house (% of households)</t>
   </si>
   <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Unmet need for contraception (% of married women ages 15-49)</t>
   </si>
   <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
   </si>
   <si>
     <t>Diarrhea treatment (% of children under 5 receiving oral rehydration and continued feeding)</t>
   </si>
   <si>
-    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
-  </si>
-  <si>
     <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
@@ -1369,498 +1372,498 @@
     <t>Postnatal care coverage (% mothers)</t>
   </si>
   <si>
+    <t>Unmet need for family planning (total) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q5 (highest)</t>
+  </si>
+  <si>
     <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%)</t>
   </si>
   <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q3</t>
+  </si>
+  <si>
     <t>Unmet need for family planning (for spacing) (% of married women): Q5 (highest)</t>
   </si>
   <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q3</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q2</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q1 (lowest)</t>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q2</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q2</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q2</t>
   </si>
   <si>
     <t>Unmet need for family planning (total) (% of married women): Q3</t>
   </si>
   <si>
+    <t>Wanted fertility rate (births per woman)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q2</t>
+  </si>
+  <si>
     <t>Unmet need for family planning (total) (% of married women): Q4</t>
   </si>
   <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q4</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%)</t>
+  </si>
+  <si>
+    <t>Women participating in the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women participating in own health care decisions (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women participating in none of the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women participating in making major household purchase decisions (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%)</t>
+  </si>
+  <si>
+    <t>Women participating in making daily purchase decisions (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women participating in decision of what food to cook daily (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women participating in decision of visits to family, relatives, friends (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q4</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q2</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: mainly wife (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%)</t>
+  </si>
+  <si>
     <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q4</t>
   </si>
   <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q4</t>
-  </si>
-  <si>
-    <t>Women participating in making daily purchase decisions (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q4</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q3</t>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: agricultural crop (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q3</t>
+  </si>
+  <si>
+    <t>Households with water on the premises (%)</t>
+  </si>
+  <si>
+    <t>Households with water less than 30 minutes away round trip (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q2</t>
+  </si>
+  <si>
+    <t>Households with water 30 minutes or longer away round trip (%)</t>
+  </si>
+  <si>
+    <t>Location of cooking: other places (% of households)</t>
+  </si>
+  <si>
+    <t>Location of cooking: outdoors (% of households)</t>
+  </si>
+  <si>
+    <t>Location of cooking: separate building (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: charcoal (% of households)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: straw/shrubs/grass (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: wood (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Female headed households (% of households with a female head)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q4</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: someone else (% of women age 15-49)</t>
   </si>
   <si>
     <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q2</t>
   </si>
   <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q4</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q3</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q2</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q2</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q3</t>
+    <t>Decision maker about a woman's visits to her family or relatives: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: someone else (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: mainly wife (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%)</t>
+  </si>
+  <si>
+    <t>Condom use, population ages 15-24, female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q4</t>
   </si>
   <si>
     <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q3</t>
   </si>
   <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women participating in decision of what food to cook daily (% of women age 15-49)</t>
-  </si>
-  <si>
     <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q2</t>
   </si>
   <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%)</t>
-  </si>
-  <si>
-    <t>Women participating in the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
-  </si>
-  <si>
     <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q1 (lowest)</t>
   </si>
   <si>
-    <t>Women participating in own health care decisions (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women participating in none of the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q2</t>
-  </si>
-  <si>
-    <t>Women participating in making major household purchase decisions (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Wanted fertility rate (births per woman)</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q2</t>
-  </si>
-  <si>
-    <t>Women participating in decision of visits to family, relatives, friends (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q3</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q4</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: other (% of women age 15-49)</t>
+    <t>Condom use with non regular partner, % adults(15-49), female</t>
+  </si>
+  <si>
+    <t>Condom use at last high-risk sex, adult female (% ages 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about Visits to her family or relatives: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: someone else (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied by any methods (% of married women with demand for family planning)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q3</t>
   </si>
   <si>
     <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q2</t>
   </si>
   <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Condom use at last high-risk sex, adult female (% ages 15-49)</t>
-  </si>
-  <si>
-    <t>Female headed households (% of households with a female head)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q2</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: straw/shrubs/grass (% of households)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q4</t>
-  </si>
-  <si>
-    <t>Households with water on the premises (%)</t>
-  </si>
-  <si>
-    <t>Location of cooking: other places (% of households)</t>
-  </si>
-  <si>
-    <t>Location of cooking: outdoors (% of households)</t>
-  </si>
-  <si>
-    <t>Location of cooking: separate building (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: agricultural crop (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: charcoal (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: dung (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: electricity  (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: wood (% of households)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Households with water less than 30 minutes away round trip (%)</t>
-  </si>
-  <si>
-    <t>Households with water 30 minutes or longer away round trip (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: other (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: mainly wife (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: wife and husband jointly (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: mainly wife (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Decision maker about Visits to her family or relatives: wife and husband jointly (% of women age 15-49)</t>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q3</t>
   </si>
   <si>
     <t>Decision maker about major household purchases: mainly wife (% of women age 15-49)</t>
   </si>
   <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%)</t>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q5 (highest)</t>
   </si>
   <si>
     <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q1 (lowest)</t>
   </si>
   <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Condom use, population ages 15-24, female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q3</t>
-  </si>
-  <si>
-    <t>Condom use with non regular partner, % adults(15-49), female</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q2</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: other (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q4</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: wife and husband jointly (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Demand for family planning satisfied by any methods (% of married women with demand for family planning)</t>
-  </si>
-  <si>
     <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
@@ -1870,90 +1873,87 @@
     <t>Age at first marriage, male</t>
   </si>
   <si>
+    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
+  </si>
+  <si>
     <t>Diarrhea treatment (% of children under 5 who received ORS packet)</t>
   </si>
   <si>
-    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
+    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
   </si>
   <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
     <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of wasting, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
@@ -1984,31 +1984,31 @@
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Children in employment, male (% of male children ages 7-14)</t>
+  </si>
+  <si>
     <t>Children in employment, female (% of female children ages 7-14)</t>
   </si>
   <si>
-    <t>Children in employment, male (% of male children ages 7-14)</t>
+    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.670928803293137</v>
+        <v>1.676370980163885</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.638947418051985</v>
+        <v>1.641403407011182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.614647259531114</v>
+        <v>1.613853608737463</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.590215589356999</v>
+        <v>1.600410679354721</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.569994090187744</v>
+        <v>1.569400834278257</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.568676654746304</v>
+        <v>1.56225322329136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.549341644913705</v>
+        <v>1.550702189131392</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.478057255230398</v>
+        <v>1.479077663393663</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.473689827221185</v>
+        <v>1.478671806144384</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.472944224093656</v>
+        <v>1.47471023538445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.4375463553293</v>
+        <v>1.439021465616329</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.400476610464438</v>
+        <v>1.401684988552516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.353953654669873</v>
+        <v>1.35351560066039</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.323246603708819</v>
+        <v>1.32185771481993</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.303297472166403</v>
+        <v>1.30933924746238</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.29991736813446</v>
+        <v>1.298896959971195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.239086126027755</v>
+        <v>1.238490887932517</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.231202439673983</v>
+        <v>1.230862303619561</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.182915343898521</v>
+        <v>1.183255479952942</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.182618535539637</v>
+        <v>1.17953746978</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.161439161737534</v>
+        <v>1.162459569900799</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.148139145275918</v>
+        <v>1.14808087566556</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.14808087566556</v>
+        <v>1.145987876775259</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.130925713598559</v>
+        <v>1.130557232872935</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.13064854244141</v>
+        <v>1.128862828155695</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.120892010612937</v>
+        <v>1.119106296327223</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.105249177725617</v>
+        <v>1.104257114233554</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.101715561705722</v>
+        <v>1.103628827011844</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.092906945915874</v>
+        <v>1.093381868803763</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.092389805311699</v>
+        <v>1.091716469725398</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.083350241582382</v>
+        <v>1.082629087736228</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.073687530459172</v>
+        <v>1.076008959030601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.048404690596918</v>
+        <v>1.048206277898505</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.045778335969149</v>
+        <v>1.046103011293824</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.044671637390726</v>
+        <v>1.043877986597075</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.032859764544479</v>
+        <v>1.033653415338129</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.021633060287758</v>
+        <v>1.022029885684584</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.018000558384406</v>
+        <v>1.018340694438828</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.015009274283905</v>
+        <v>1.015944648433564</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.012903902439898</v>
+        <v>1.013324070507125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.010954739601984</v>
+        <v>1.010002358649603</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9956080544913397</v>
+        <v>0.9959415398568319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9929368898817388</v>
+        <v>0.9918811716370532</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9918811716370532</v>
+        <v>0.9915898797325007</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9915898797325007</v>
+        <v>0.9873115522978284</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9719072650564198</v>
+        <v>0.9701215507707057</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.964397615559426</v>
+        <v>0.9640027700784106</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9639602530716078</v>
+        <v>0.9640027700784106</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9639602530716078</v>
+        <v>0.9636039647657757</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9422539497620428</v>
+        <v>0.9411818542571746</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9308365120518403</v>
+        <v>0.9300116821198672</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9132602633409674</v>
+        <v>0.9122086760393806</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8949816521889986</v>
+        <v>0.895336229536003</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.860768489617723</v>
+        <v>0.8621857231778138</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.860113353639592</v>
+        <v>0.8604654108346514</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8577645753009369</v>
+        <v>0.860113353639592</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8564359990046868</v>
+        <v>0.8577645753009369</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8546490843040393</v>
+        <v>0.8564359990046868</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8494206662924264</v>
+        <v>0.854326484111025</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8493651605445849</v>
+        <v>0.8494206662924264</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8433249514352208</v>
+        <v>0.8428147473535881</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8274344421490034</v>
+        <v>0.8400985808455064</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.826711622584686</v>
+        <v>0.8301475985654361</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.826554880497705</v>
+        <v>0.8274344421490034</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8209568376089051</v>
+        <v>0.8199364294456402</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8036593217713068</v>
+        <v>0.805015583715412</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7949417746776413</v>
+        <v>0.7946583279656232</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7884357374768789</v>
+        <v>0.7896219313937733</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7467262229623053</v>
+        <v>0.7464005130528242</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.74204032788615</v>
+        <v>0.7429331850290075</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.7374589490424315</v>
+        <v>0.7381694770530141</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.7342844525516432</v>
+        <v>0.7374589490424315</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7323280090485633</v>
+        <v>0.7327248344453887</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.7220680866135201</v>
+        <v>0.7185735352446705</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.7181767098478451</v>
+        <v>0.7124470010872355</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7124470010872355</v>
+        <v>0.7059891303126939</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.7059891303126939</v>
+        <v>0.7032382338304788</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.7051402816577188</v>
+        <v>0.7018250102538377</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7027596101149829</v>
+        <v>0.6987270518755644</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.7026803523906922</v>
+        <v>0.6950062452081083</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6942125944144575</v>
+        <v>0.6939023522890846</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6937467039183922</v>
+        <v>0.6932527842345071</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6858628342189308</v>
+        <v>0.6862596596157562</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6847905462802131</v>
+        <v>0.6856472225573418</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6845528320583103</v>
+        <v>0.6849496574551357</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6842441613328516</v>
+        <v>0.6847905462802131</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6837310673656192</v>
+        <v>0.6841278927624446</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6831392499107789</v>
+        <v>0.6835360753076043</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6819811789472539</v>
+        <v>0.6823780043440792</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6817010243154673</v>
+        <v>0.6820978497122927</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6771677623559438</v>
+        <v>0.6774188291560814</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.677022003759256</v>
+        <v>0.6749570219317338</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6749570219317338</v>
+        <v>0.6741078889612973</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.6741078889612973</v>
+        <v>0.6722190031100048</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6722190031100048</v>
+        <v>0.6705762831520179</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.6701794577551925</v>
+        <v>0.6694403456620122</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6690435202651868</v>
+        <v>0.6689106720445415</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6672864980506912</v>
+        <v>0.6676833234475166</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.662880777104295</v>
+        <v>0.66327760250112</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.6609899036409512</v>
+        <v>0.6613867290377766</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6607323722743212</v>
+        <v>0.6611291976711469</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6605867345658163</v>
+        <v>0.6607038305845523</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6592983345254122</v>
+        <v>0.6595357662268997</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6591389408300747</v>
+        <v>0.6592983345254122</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6448205921987644</v>
+        <v>0.6452174175955898</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6438629174404618</v>
+        <v>0.6442597428372872</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6250094093795207</v>
+        <v>0.6251837239994296</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6247868986026042</v>
+        <v>0.6250094093795207</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6243731819090668</v>
+        <v>0.6247700073058917</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6153035874766264</v>
+        <v>0.6158988255718638</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6129382186446639</v>
+        <v>0.6125736673961546</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6125736673961546</v>
+        <v>0.6120453615018069</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.6037416359343082</v>
+        <v>0.6041053223006219</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6024233789313662</v>
+        <v>0.602019155628513</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.602019155628513</v>
+        <v>0.6014767466110453</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6014767466110453</v>
+        <v>0.6007195679165993</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.593418584153629</v>
+        <v>0.5922281079631528</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.590831812629564</v>
+        <v>0.5901137666675649</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5907951429531135</v>
+        <v>0.5900914622572426</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5883622646923372</v>
+        <v>0.5891799778836082</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5714936270650626</v>
+        <v>0.5731295064296005</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5644147918856413</v>
+        <v>0.5658969786902377</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.56286731763621</v>
+        <v>0.564974453009587</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5610010831983279</v>
+        <v>0.5641345553005066</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.5593998220848575</v>
+        <v>0.5569663587967808</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5399853682663873</v>
+        <v>0.539176413674106</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5398136389174431</v>
+        <v>0.5377634271101663</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5105489872589724</v>
+        <v>0.5103431842900115</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5100727967827821</v>
+        <v>0.5103431842900115</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5049346012035891</v>
+        <v>0.5057195305599471</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4997551280767167</v>
+        <v>0.504485336914795</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4992869242163827</v>
+        <v>0.5041001788275876</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4981684236157782</v>
+        <v>0.4999733013313312</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4890382820319608</v>
+        <v>0.4971197414594091</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4646860741269585</v>
+        <v>0.4868339387561882</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.4634205865386258</v>
+        <v>0.4687036627811978</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.461517208476081</v>
+        <v>0.4634968991149382</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4570566086149435</v>
+        <v>0.4618148275236997</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4386572557307518</v>
+        <v>0.4353803430571452</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4275102703131965</v>
+        <v>0.4278128272921067</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4253197661277439</v>
+        <v>0.4263508578302546</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4165085635297938</v>
+        <v>0.4155718809738822</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4165085635297938</v>
+        <v>0.4144215165898064</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4158466062486075</v>
+        <v>0.414398173919404</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.412695050539837</v>
+        <v>0.41263841718237</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4124899845178522</v>
+        <v>0.4101064321104748</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3825787009698807</v>
+        <v>0.3765957827797235</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3773986869233714</v>
+        <v>0.3712691771603571</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3673578520089817</v>
+        <v>0.3673535697353998</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3583160935332521</v>
+        <v>0.3665592013026755</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3568498918110021</v>
+        <v>0.3563120249244063</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3494068808887063</v>
+        <v>0.3529783094601349</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3428151401796722</v>
+        <v>0.3475811022683766</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3410334832207575</v>
+        <v>0.3463865687511007</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3406563960942843</v>
+        <v>0.3401747197446046</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3371296109398687</v>
+        <v>0.340052003554002</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3365199980585918</v>
+        <v>0.3383604777269376</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3361484371821377</v>
+        <v>0.3377998587137749</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3346948606968592</v>
+        <v>0.3368628252763433</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3282546800859154</v>
+        <v>0.3299040133066622</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3273455337744984</v>
+        <v>0.3239968270692051</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3245070311508378</v>
+        <v>0.3238276227800427</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3211877598466659</v>
+        <v>0.3230787481972974</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.318139316284181</v>
+        <v>0.3228330900281806</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3151677176873731</v>
+        <v>0.3134570130803269</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.313452553254759</v>
+        <v>0.3132257958851445</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2961596895092924</v>
+        <v>0.2971424996513583</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2942937068485008</v>
+        <v>0.2968280726648138</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2908988609095451</v>
+        <v>0.2959870039179953</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2908452666381649</v>
+        <v>0.2959352444821128</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2898870383293712</v>
+        <v>0.2952441811865145</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2882489086798998</v>
+        <v>0.2949217077409221</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2879511168126967</v>
+        <v>0.2910498989492774</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2874784703778488</v>
+        <v>0.2895964469942112</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2846438655877899</v>
+        <v>0.2872992967794052</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2842663007322253</v>
+        <v>0.2862450786666075</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2814835086434075</v>
+        <v>0.2857378516794276</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2802926977142266</v>
+        <v>0.2857378516794276</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2799246976458936</v>
+        <v>0.2847998351740197</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2797854707270466</v>
+        <v>0.2828632395077357</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2797854707270466</v>
+        <v>0.2823056500268459</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2732424839150962</v>
+        <v>0.2819680950805106</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2716099351912771</v>
+        <v>0.2783020077246201</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2605561250688024</v>
+        <v>0.276669459000801</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2605197205510659</v>
+        <v>0.2615765332320679</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2546821335228671</v>
+        <v>0.2602929631814515</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2532374771988899</v>
+        <v>0.2577549866928628</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2486572642742544</v>
+        <v>0.2560977404647309</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2479374913970851</v>
+        <v>0.2521832930775982</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2447959629782335</v>
+        <v>0.2503184437780377</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2425993528091335</v>
+        <v>0.2423328927874844</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2396543213589128</v>
+        <v>0.2417373610145754</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2373162554465045</v>
+        <v>0.2399161701520121</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2366965587518111</v>
+        <v>0.2392080364881701</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2365294650595988</v>
+        <v>0.2384249309591526</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2325928016179477</v>
+        <v>0.2368060513648718</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2315328490728257</v>
+        <v>0.2361863546701783</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2303076921429261</v>
+        <v>0.231022644991193</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2278545851234677</v>
+        <v>0.2277450761874529</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2262926489609158</v>
+        <v>0.2269215772691702</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2261715835856133</v>
+        <v>0.2262926489609158</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2207814673790598</v>
+        <v>0.2262926489609158</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2198670572476411</v>
+        <v>0.225497148047626</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2182875602336902</v>
+        <v>0.2180608028640756</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2161945321354413</v>
+        <v>0.2164394540245942</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2159327533982562</v>
+        <v>0.2161973232739891</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2148521524372928</v>
+        <v>0.2156843280538085</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2146100216866877</v>
+        <v>0.2154225493166235</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2076677028501044</v>
+        <v>0.209586638490457</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2064120353158536</v>
+        <v>0.2091601553121731</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2063081898845402</v>
+        <v>0.2071574987684719</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2057928109769347</v>
+        <v>0.206153177520656</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2029785743460528</v>
+        <v>0.2059586577270838</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2024172176355199</v>
+        <v>0.2055824320583668</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2006079422624485</v>
+        <v>0.2019611261079997</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1984647832129696</v>
+        <v>0.2004659247240843</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1979783741714691</v>
+        <v>0.2001439854274265</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.195491434928166</v>
+        <v>0.1980086916854495</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1951694956315082</v>
+        <v>0.1975222826439491</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1947074769675938</v>
+        <v>0.1952601980560293</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1944439228134562</v>
+        <v>0.1949966439018918</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1931540010992006</v>
+        <v>0.1937492391944386</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1906649412571331</v>
+        <v>0.1924768519861588</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.190138416612009</v>
+        <v>0.1892952192925923</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1861458323332068</v>
+        <v>0.1891227334649253</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1861206161179891</v>
+        <v>0.1887465307248135</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1839360305392688</v>
+        <v>0.1862744659134183</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1837493709632851</v>
+        <v>0.1854113330231695</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1832946180291857</v>
+        <v>0.1851797314151264</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1832946180291857</v>
+        <v>0.184603624540999</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1830728976490199</v>
+        <v>0.1844637066900412</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1826496477331252</v>
+        <v>0.1841320240245095</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1807162276945105</v>
+        <v>0.18367727109041</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1804329872757975</v>
+        <v>0.18367727109041</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1800734850688424</v>
+        <v>0.1827714226499471</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1795402751161246</v>
+        <v>0.1813904808231241</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1771494283848234</v>
+        <v>0.1813259894018389</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1766627471232738</v>
+        <v>0.1810774862774642</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1766627471232738</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1764022109691459</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1738887447566926</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1726245212511643</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1718208837535271</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1715078892078672</v>
+        <v>0.180800067617692</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1712304705480949</v>
+        <v>0.1800734850688424</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1712304705480949</v>
+        <v>0.1766627471232738</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1712304705480949</v>
+        <v>0.1766627471232738</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1712304705480949</v>
+        <v>0.1762271801308419</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1712304705480949</v>
+        <v>0.1749629566253139</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1712304705480949</v>
+        <v>0.1732651433485979</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1701601874595542</v>
+        <v>0.1730017455198083</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.169609450813796</v>
+        <v>0.1719459017452685</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1670860050266025</v>
+        <v>0.171748025683071</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1647249620860305</v>
+        <v>0.1656280167395794</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1626518262633887</v>
+        <v>0.1637856240565705</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1605538036387721</v>
+        <v>0.1613244966366929</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1583434471858221</v>
+        <v>0.1605538036387721</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1543366210240615</v>
+        <v>0.1562924033369868</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1533820667321473</v>
+        <v>0.1546802175399127</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1520392343308465</v>
+        <v>0.1544201867117991</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1519874136025552</v>
+        <v>0.1543683659835078</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.151704027063722</v>
+        <v>0.1539939352738302</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1505952567398101</v>
+        <v>0.1537362694433217</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1492148637626147</v>
+        <v>0.1529762091207627</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1487929992576689</v>
+        <v>0.1525676347988656</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1485871296607668</v>
+        <v>0.1517691897338596</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1485517584030818</v>
+        <v>0.15117064607554</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.148400064177667</v>
+        <v>0.1506704629941</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1482940925725735</v>
+        <v>0.1506566212140581</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1473554138362421</v>
+        <v>0.1504833975110003</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1456934102869429</v>
+        <v>0.1480743626678955</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1452144443433097</v>
+        <v>0.1465180495203247</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1449154988982786</v>
+        <v>0.146105975088755</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1426205658094797</v>
+        <v>0.1455967562856699</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1421786395275655</v>
+        <v>0.1446988236024982</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1410758726495764</v>
+        <v>0.1437092517724632</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1400981902457072</v>
+        <v>0.1421692341011902</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1380237470360777</v>
+        <v>0.1407016174361695</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1370451548511353</v>
+        <v>0.1380237470360777</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1367284492875793</v>
+        <v>0.1352342352037725</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1352342352037725</v>
+        <v>0.1345839322582696</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.131260855906014</v>
+        <v>0.1324470498229084</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1304093728035238</v>
+        <v>0.1314147598841655</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1300144062566513</v>
+        <v>0.1313158866868684</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1263552360746416</v>
+        <v>0.1294933991892546</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1262563628773445</v>
+        <v>0.1290318217831155</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1244338753797307</v>
+        <v>0.1247264971074682</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1241094521482684</v>
+        <v>0.1246572633995084</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1237751664716256</v>
+        <v>0.1223976154512172</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1234368145677858</v>
+        <v>0.1208617834908026</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1217546406336596</v>
+        <v>0.1204057045082458</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1204493992187226</v>
+        <v>0.1203107168087998</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1203107168087998</v>
+        <v>0.1199257786788805</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1201080854606267</v>
+        <v>0.1196102304559545</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1193758602520756</v>
+        <v>0.1192589230282461</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1189518643671623</v>
+        <v>0.1192494834147815</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1172425209026711</v>
+        <v>0.117144204428471</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1168465853808518</v>
+        <v>0.1167417164109301</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1163590633497054</v>
+        <v>0.1142093655817691</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1144269405805891</v>
+        <v>0.1130588474332832</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1142093655817691</v>
+        <v>0.1128070120485034</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1141242616286704</v>
+        <v>0.11193038407765</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1113446248931065</v>
+        <v>0.1107383354700668</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1113446248931065</v>
+        <v>0.1107383354700668</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1110393544990795</v>
+        <v>0.1098488783086031</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1107383354700668</v>
+        <v>0.1092977606279146</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1107383354700668</v>
+        <v>0.1084620207950182</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1103218225983373</v>
+        <v>0.1065586915197378</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1092977606279146</v>
+        <v>0.1059874820359636</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1081644017473991</v>
+        <v>0.1059874820359636</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.1065586915197378</v>
+        <v>0.1055324682601106</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.1047515554512739</v>
+        <v>0.105465015161547</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1046713643678963</v>
+        <v>0.1025576779002535</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.09922130128480067</v>
+        <v>0.1013014298506594</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.09867185073535012</v>
+        <v>0.09922130128480067</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.09818297108579221</v>
+        <v>0.09867185073535012</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.09585881411729602</v>
+        <v>0.09398773079601352</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.09398773079601352</v>
+        <v>0.09299232315410655</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.09321908052372097</v>
+        <v>0.09264992268227124</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.09135497698576844</v>
+        <v>0.09254117090266289</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.08848569240686222</v>
+        <v>0.09126787247748247</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.08843532775339047</v>
+        <v>0.08746528424359701</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.08757315658862619</v>
+        <v>0.08550903926905962</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.08652944743232482</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.08054686490926444</v>
+        <v>0.07876115062355016</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.08054686490926444</v>
+        <v>0.07515864135850547</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.07041042294426458</v>
+        <v>0.07149187614321262</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.07041042294426458</v>
+        <v>0.07018366557464994</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.06795469028820267</v>
+        <v>0.07018366557464994</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.06757782531262158</v>
+        <v>0.07010940584282332</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.06649546026459174</v>
+        <v>0.07010940584282332</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.06649546026459174</v>
+        <v>0.06687153896700182</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.06623517782446475</v>
+        <v>0.06665004171425459</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.06149601477736577</v>
+        <v>0.06623517782446475</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.06103829940348593</v>
+        <v>0.06149601477736577</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.05986253626385496</v>
+        <v>0.06103829940348593</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.05926828351391933</v>
+        <v>0.05986253626385496</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.05863887192022221</v>
+        <v>0.05926828351391933</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>0.05731336269759879</v>
+        <v>0.05863887192022221</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0.05702039781657042</v>
+        <v>0.05731336269759879</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>0.05635197869950037</v>
+        <v>0.05702039781657042</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>0.05565846767954841</v>
+        <v>0.05635197869950037</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>0.05405898237716023</v>
+        <v>0.05565846767954841</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>0.05345758351427365</v>
+        <v>0.05405898237716023</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>0.053369098544507</v>
+        <v>0.05345758351427365</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>0.05274183378000497</v>
+        <v>0.053369098544507</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>0.05126593800235035</v>
+        <v>0.05157973751484102</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>0.05018155653039358</v>
+        <v>0.05126593800235035</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>0.04484732432325345</v>
+        <v>0.0460335182401479</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>0.04116920564587812</v>
+        <v>0.0411005243271978</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>0.04001200480972433</v>
+        <v>0.03941676671448624</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>0.02435879114072326</v>
+        <v>0.02429336837883533</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>0.01992408662294154</v>
+        <v>0.02270253067910843</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>0.00815171394329095</v>
+        <v>0.009337907860185179</v>
       </c>
     </row>
     <row r="663" spans="1:2">
